--- a/pred_ohlcv/54_21/2019-10-18 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 BAT ohlcv.xlsx
@@ -1068,7 +1068,7 @@
         <v>26741.4071786007</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>27113.0581786007</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>31636.0581786007</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>30811.1481786007</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>39663.5757786007</v>
       </c>
       <c r="H30">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>39509.5757786007</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>36897.0648786007</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>24897.0648786007</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>30357.6408786007</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>33244.6388786007</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-12128.3458213993</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6791.672921399299</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-14574.5083213993</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H142">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H143">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H144">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-12015.4206213993</v>
       </c>
       <c r="H145">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-12727.0036213993</v>
       </c>
       <c r="H146">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-12724.6036213993</v>
       </c>
       <c r="H147">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-12724.6036213993</v>
       </c>
       <c r="H148">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-12729.6225213993</v>
       </c>
       <c r="H150">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-13029.4841213993</v>
       </c>
       <c r="H151">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13029.4841213993</v>
       </c>
       <c r="H152">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>23867.25599949621</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>21017.25599949621</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>29229.25599949621</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26428.75549949621</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>-14074.39750050379</v>
       </c>
       <c r="H196">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>-13004.39750050379</v>
       </c>
       <c r="H197">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-18 BAT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-18 BAT ohlcv.xlsx
@@ -1042,7 +1042,7 @@
         <v>74932.2451786007</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>26741.4071786007</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>27113.0581786007</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>31636.0581786007</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>30811.1481786007</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>39663.5757786007</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>33123.9316786007</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>33244.6388786007</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>28483.4601786007</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-12128.3458213993</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-6791.672921399299</v>
       </c>
       <c r="H101">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>-14574.5083213993</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H125">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H126">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H127">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-15576.8259213993</v>
       </c>
       <c r="H128">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-12021.4432213993</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-12015.4206213993</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-12727.0036213993</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-12724.6036213993</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-12724.6036213993</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-12729.6225213993</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-12729.6225213993</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-13029.4841213993</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-13029.4841213993</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>17506.65749949621</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>17521.86689949621</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>17547.25599949621</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>23867.25599949621</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>21017.25599949621</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>29229.25599949621</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>26428.75549949621</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>3363.751199496211</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
